--- a/PETS SURVEY FINAL EXCEL 11.17.2018.xlsx
+++ b/PETS SURVEY FINAL EXCEL 11.17.2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffreyberinstein/Documents/Research/Higgins/CDI Pet Survey/Pets_cdi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405D394F-C4C1-D14C-8F3C-0F4C4E75E59E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772E07CC-2C01-C541-BC98-32A22A6A449E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1720" windowWidth="21460" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32320" yWindow="3120" windowWidth="21460" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clean Master" sheetId="1" r:id="rId1"/>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ891"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A675" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A697" sqref="A697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -25480,7 +25480,7 @@
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A784">
-        <v>2035</v>
+        <v>3025</v>
       </c>
       <c r="B784">
         <v>1</v>
